--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2696.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2696.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163883911545988</v>
+        <v>0.8320139646530151</v>
       </c>
       <c r="B1">
-        <v>2.416620915033016</v>
+        <v>1.383286952972412</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.723418712615967</v>
       </c>
       <c r="D1">
-        <v>2.336915331179939</v>
+        <v>2.657821178436279</v>
       </c>
       <c r="E1">
-        <v>1.215988782999311</v>
+        <v>1.634214997291565</v>
       </c>
     </row>
   </sheetData>
